--- a/DarftUI.xlsx
+++ b/DarftUI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Standard Cost Calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\STD_Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A6D0B-27A4-41F1-B87F-7B2E09D4DF7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A53E0-FCB0-4AF4-ACB3-645434C8DE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7425" tabRatio="526" firstSheet="1" activeTab="1" xr2:uid="{0181C50A-6E40-4326-8B7A-750EB5EA9C57}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="140">
   <si>
     <t>Data Base ( Master )</t>
   </si>
@@ -466,12 +466,21 @@
       <t>csv</t>
     </r>
   </si>
+  <si>
+    <t>***1. Pattern ต้องมีอยู่แล้ว</t>
+  </si>
+  <si>
+    <t>2.เลือก Year -&gt; Prepare Master ข้อมูลจะ insert temp table check เช็คแต่ละProcess item status จะขึ้นที่ละอัน</t>
+  </si>
+  <si>
+    <t>3. หากเช็คขั้นตอน2 เสร็จแล้วจะ ขึ้นตาราง select item calให้ทำงาน</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -537,8 +546,22 @@
       <name val="Meiryo UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +598,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -1244,10 +1277,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1335,12 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1350,9 +1379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1375,11 +1401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1387,18 +1408,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,15 +1445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1465,12 +1472,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="33" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="47" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="44" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="38" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="51" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="52" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2445,22 +2515,22 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="85" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="85" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="82" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="21"/>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="85" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2472,18 +2542,18 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="100"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="100"/>
+      <c r="I5" s="89"/>
       <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="94"/>
+      <c r="M5" s="83"/>
       <c r="O5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="21"/>
-      <c r="R5" s="97"/>
+      <c r="R5" s="86"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -2497,20 +2567,20 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="100"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="100"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="5"/>
       <c r="K6" s="33"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="94"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="5"/>
       <c r="O6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="98"/>
+      <c r="R6" s="87"/>
       <c r="S6" t="s">
         <v>15</v>
       </c>
@@ -2523,18 +2593,18 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="100"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="100"/>
+      <c r="I7" s="89"/>
       <c r="K7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="83"/>
       <c r="O7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P7" s="21"/>
-      <c r="R7" s="97"/>
+      <c r="R7" s="86"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -2548,33 +2618,33 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="100"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="100"/>
+      <c r="I8" s="89"/>
       <c r="K8" s="31"/>
-      <c r="M8" s="94"/>
+      <c r="M8" s="83"/>
       <c r="O8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="21"/>
-      <c r="R8" s="97"/>
+      <c r="R8" s="86"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="101"/>
-      <c r="I9" s="101"/>
+      <c r="G9" s="90"/>
+      <c r="I9" s="90"/>
       <c r="K9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="95"/>
+      <c r="M9" s="84"/>
       <c r="O9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="21"/>
-      <c r="R9" s="99"/>
+      <c r="R9" s="88"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F10" s="24"/>
@@ -2625,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672BD6B-A6D8-4D3C-AB51-996EEF3418D5}">
   <dimension ref="B2:BT135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA48" sqref="BA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2769,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="39"/>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="72" t="s">
         <v>31</v>
       </c>
       <c r="O8" s="45"/>
@@ -2987,52 +3057,52 @@
       <c r="M32" s="39"/>
       <c r="AK32" s="40"/>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B33" s="39"/>
       <c r="M33" s="39"/>
       <c r="AK33" s="40"/>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B34" s="39"/>
       <c r="M34" s="39"/>
       <c r="AK34" s="40"/>
     </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="M35" s="39"/>
       <c r="AK35" s="40"/>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B36" s="39"/>
       <c r="M36" s="39"/>
       <c r="AK36" s="40"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B37" s="39"/>
       <c r="M37" s="39"/>
       <c r="AK37" s="40"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
       <c r="M38" s="39"/>
       <c r="AK38" s="40"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B39" s="39"/>
       <c r="M39" s="39"/>
       <c r="AK39" s="40"/>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B40" s="39"/>
       <c r="M40" s="39"/>
       <c r="AK40" s="40"/>
     </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B41" s="39"/>
       <c r="M41" s="39"/>
       <c r="AK41" s="40"/>
     </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
@@ -3070,7 +3140,7 @@
       <c r="AJ42" s="42"/>
       <c r="AK42" s="43"/>
     </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -3108,18 +3178,18 @@
       <c r="AJ44" s="37"/>
       <c r="AK44" s="38"/>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B45" s="39"/>
       <c r="C45" t="s">
         <v>22</v>
       </c>
       <c r="AK45" s="40"/>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B46" s="39"/>
       <c r="AK46" s="40"/>
     </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -3157,18 +3227,52 @@
       <c r="AJ47" s="37"/>
       <c r="AK47" s="38"/>
     </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="39"/>
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="39"/>
-      <c r="N48" s="47" t="s">
+      <c r="M48" s="104"/>
+      <c r="N48" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AK48" s="40"/>
-    </row>
-    <row r="49" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="101"/>
+      <c r="AI48" s="101"/>
+      <c r="AJ48" s="101"/>
+      <c r="AK48" s="102"/>
+      <c r="AL48" s="101"/>
+      <c r="AM48" s="101"/>
+      <c r="AN48" s="101"/>
+      <c r="AO48" s="101"/>
+      <c r="AP48" s="101"/>
+      <c r="AQ48" s="101"/>
+      <c r="AR48" s="101"/>
+      <c r="AS48" s="101"/>
+      <c r="AT48" s="101"/>
+      <c r="AU48" s="101"/>
+    </row>
+    <row r="49" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="39"/>
       <c r="D49" t="s">
         <v>26</v>
@@ -3183,13 +3287,47 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="39"/>
-      <c r="AK49" s="40"/>
-      <c r="AM49" t="s">
+      <c r="M49" s="104"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="101"/>
+      <c r="W49" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="101"/>
+      <c r="Z49" s="101"/>
+      <c r="AA49" s="101"/>
+      <c r="AB49" s="101"/>
+      <c r="AC49" s="101"/>
+      <c r="AD49" s="101"/>
+      <c r="AE49" s="101"/>
+      <c r="AF49" s="101"/>
+      <c r="AG49" s="101"/>
+      <c r="AH49" s="101"/>
+      <c r="AI49" s="101"/>
+      <c r="AJ49" s="101"/>
+      <c r="AK49" s="102"/>
+      <c r="AL49" s="101"/>
+      <c r="AM49" s="101" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AN49" s="101"/>
+      <c r="AO49" s="101"/>
+      <c r="AP49" s="101"/>
+      <c r="AQ49" s="101"/>
+      <c r="AR49" s="101"/>
+      <c r="AS49" s="101"/>
+      <c r="AT49" s="101"/>
+      <c r="AU49" s="101"/>
+    </row>
+    <row r="50" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="39"/>
       <c r="D50" t="s">
         <v>26</v>
@@ -3197,21 +3335,39 @@
       <c r="E50" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="39"/>
-      <c r="N50" t="s">
+      <c r="M50" s="104"/>
+      <c r="N50" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="S50" s="48" t="s">
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="50" t="s">
+      <c r="T50" s="108"/>
+      <c r="U50" s="108"/>
+      <c r="V50" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="AK50" s="40"/>
-    </row>
-    <row r="51" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="105"/>
+      <c r="AG50" s="105"/>
+      <c r="AH50" s="105"/>
+      <c r="AI50" s="105"/>
+      <c r="AJ50" s="105"/>
+      <c r="AK50" s="106"/>
+    </row>
+    <row r="51" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="39"/>
       <c r="D51" t="s">
         <v>26</v>
@@ -3219,13 +3375,33 @@
       <c r="E51" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="39"/>
-      <c r="AD51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AK51" s="40"/>
-    </row>
-    <row r="52" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="M51" s="104"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="105"/>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="105"/>
+      <c r="AI51" s="105"/>
+      <c r="AJ51" s="105"/>
+      <c r="AK51" s="106"/>
+    </row>
+    <row r="52" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="39"/>
       <c r="D52" t="s">
         <v>26</v>
@@ -3233,10 +3409,33 @@
       <c r="E52" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="39"/>
-      <c r="AK52" s="40"/>
-    </row>
-    <row r="53" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="M52" s="104"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="105"/>
+      <c r="X52" s="105"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="105"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="105"/>
+      <c r="AC52" s="105"/>
+      <c r="AD52" s="105"/>
+      <c r="AE52" s="105"/>
+      <c r="AF52" s="105"/>
+      <c r="AG52" s="105"/>
+      <c r="AH52" s="105"/>
+      <c r="AI52" s="105"/>
+      <c r="AJ52" s="105"/>
+      <c r="AK52" s="106"/>
+    </row>
+    <row r="53" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="39"/>
       <c r="D53" t="s">
         <v>26</v>
@@ -3244,38 +3443,38 @@
       <c r="E53" t="s">
         <v>39</v>
       </c>
-      <c r="M53" s="39"/>
-      <c r="N53" s="58" t="s">
+      <c r="M53" s="104"/>
+      <c r="N53" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
-      <c r="AA53" s="51"/>
-      <c r="AB53" s="51"/>
-      <c r="AC53" s="51"/>
-      <c r="AD53" s="51"/>
-      <c r="AE53" s="51"/>
-      <c r="AF53" s="51"/>
-      <c r="AG53" s="51"/>
-      <c r="AH53" s="51"/>
-      <c r="AI53" s="51"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="40"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="111"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="111"/>
+      <c r="AG53" s="111"/>
+      <c r="AH53" s="111"/>
+      <c r="AI53" s="111"/>
+      <c r="AJ53" s="112"/>
+      <c r="AK53" s="106"/>
       <c r="AM53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="39"/>
       <c r="D54" t="s">
         <v>26</v>
@@ -3283,39 +3482,39 @@
       <c r="E54" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="39"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="60" t="s">
+      <c r="M54" s="104"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="P54" s="61" t="s">
+      <c r="P54" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="61" t="s">
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="61" t="s">
+      <c r="Y54" s="116"/>
+      <c r="Z54" s="116"/>
+      <c r="AA54" s="116"/>
+      <c r="AB54" s="117"/>
+      <c r="AC54" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="AD54" s="62"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="50"/>
-      <c r="AJ54" s="54"/>
-      <c r="AK54" s="40"/>
+      <c r="AD54" s="116"/>
+      <c r="AE54" s="108"/>
+      <c r="AF54" s="108"/>
+      <c r="AG54" s="108"/>
+      <c r="AH54" s="108"/>
+      <c r="AI54" s="109"/>
+      <c r="AJ54" s="118"/>
+      <c r="AK54" s="106"/>
       <c r="AN54" t="s">
         <v>28</v>
       </c>
@@ -3323,42 +3522,42 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="39"/>
       <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="39"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="73" t="s">
+      <c r="M55" s="104"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="P55" s="64" t="s">
+      <c r="P55" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="64" t="s">
+      <c r="Q55" s="121"/>
+      <c r="R55" s="121"/>
+      <c r="S55" s="121"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="121"/>
+      <c r="V55" s="121"/>
+      <c r="W55" s="121"/>
+      <c r="X55" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="66"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="82"/>
-      <c r="AE55" s="82"/>
-      <c r="AF55" s="82"/>
-      <c r="AG55" s="82"/>
-      <c r="AH55" s="82"/>
-      <c r="AI55" s="83"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="40"/>
+      <c r="Y55" s="121"/>
+      <c r="Z55" s="121"/>
+      <c r="AA55" s="121"/>
+      <c r="AB55" s="122"/>
+      <c r="AC55" s="123"/>
+      <c r="AD55" s="124"/>
+      <c r="AE55" s="124"/>
+      <c r="AF55" s="124"/>
+      <c r="AG55" s="124"/>
+      <c r="AH55" s="124"/>
+      <c r="AI55" s="125"/>
+      <c r="AJ55" s="126"/>
+      <c r="AK55" s="106"/>
       <c r="AN55" t="s">
         <v>28</v>
       </c>
@@ -3366,43 +3565,43 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="C56" s="46" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="47"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="74" t="s">
+      <c r="M56" s="104"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="P56" s="67" t="s">
+      <c r="P56" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="67" t="s">
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="129"/>
+      <c r="T56" s="129"/>
+      <c r="U56" s="129"/>
+      <c r="V56" s="129"/>
+      <c r="W56" s="129"/>
+      <c r="X56" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="69"/>
-      <c r="AC56" s="84"/>
-      <c r="AD56" s="85"/>
-      <c r="AE56" s="85"/>
-      <c r="AF56" s="85"/>
-      <c r="AG56" s="85"/>
-      <c r="AH56" s="85"/>
-      <c r="AI56" s="86"/>
-      <c r="AJ56" s="56"/>
-      <c r="AK56" s="40"/>
+      <c r="Y56" s="129"/>
+      <c r="Z56" s="129"/>
+      <c r="AA56" s="129"/>
+      <c r="AB56" s="130"/>
+      <c r="AC56" s="131"/>
+      <c r="AD56" s="132"/>
+      <c r="AE56" s="132"/>
+      <c r="AF56" s="132"/>
+      <c r="AG56" s="132"/>
+      <c r="AH56" s="132"/>
+      <c r="AI56" s="133"/>
+      <c r="AJ56" s="126"/>
+      <c r="AK56" s="106"/>
       <c r="AN56" t="s">
         <v>28</v>
       </c>
@@ -3410,7 +3609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="39"/>
       <c r="D57" s="47" t="s">
         <v>26</v>
@@ -3419,39 +3618,39 @@
         <v>43</v>
       </c>
       <c r="F57" s="47"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="74" t="s">
+      <c r="M57" s="104"/>
+      <c r="N57" s="113"/>
+      <c r="O57" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="67" t="s">
+      <c r="P57" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="67" t="s">
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="129"/>
+      <c r="V57" s="129"/>
+      <c r="W57" s="129"/>
+      <c r="X57" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="69"/>
-      <c r="AC57" s="103" t="s">
+      <c r="Y57" s="129"/>
+      <c r="Z57" s="129"/>
+      <c r="AA57" s="129"/>
+      <c r="AB57" s="130"/>
+      <c r="AC57" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="104"/>
-      <c r="AF57" s="104"/>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="104"/>
-      <c r="AI57" s="105"/>
-      <c r="AJ57" s="56"/>
-      <c r="AK57" s="40"/>
+      <c r="AD57" s="135"/>
+      <c r="AE57" s="135"/>
+      <c r="AF57" s="135"/>
+      <c r="AG57" s="135"/>
+      <c r="AH57" s="135"/>
+      <c r="AI57" s="136"/>
+      <c r="AJ57" s="126"/>
+      <c r="AK57" s="106"/>
       <c r="AN57" t="s">
         <v>28</v>
       </c>
@@ -3459,7 +3658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="39"/>
       <c r="D58" t="s">
         <v>26</v>
@@ -3467,177 +3666,191 @@
       <c r="E58" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="74" t="s">
+      <c r="M58" s="104"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="P58" s="67" t="s">
+      <c r="P58" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="67" t="s">
+      <c r="Q58" s="129"/>
+      <c r="R58" s="129"/>
+      <c r="S58" s="129"/>
+      <c r="T58" s="129"/>
+      <c r="U58" s="129"/>
+      <c r="V58" s="129"/>
+      <c r="W58" s="129"/>
+      <c r="X58" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="69"/>
-      <c r="AC58" s="84"/>
-      <c r="AD58" s="85"/>
-      <c r="AE58" s="85"/>
-      <c r="AF58" s="85"/>
-      <c r="AG58" s="85"/>
-      <c r="AH58" s="85"/>
-      <c r="AI58" s="86"/>
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="40"/>
-    </row>
-    <row r="59" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="Y58" s="129"/>
+      <c r="Z58" s="129"/>
+      <c r="AA58" s="129"/>
+      <c r="AB58" s="130"/>
+      <c r="AC58" s="131"/>
+      <c r="AD58" s="132"/>
+      <c r="AE58" s="132"/>
+      <c r="AF58" s="132"/>
+      <c r="AG58" s="132"/>
+      <c r="AH58" s="132"/>
+      <c r="AI58" s="133"/>
+      <c r="AJ58" s="126"/>
+      <c r="AK58" s="106"/>
+    </row>
+    <row r="59" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="74" t="s">
+      <c r="M59" s="104"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="P59" s="67" t="s">
+      <c r="P59" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="67" t="s">
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="129"/>
+      <c r="T59" s="129"/>
+      <c r="U59" s="129"/>
+      <c r="V59" s="129"/>
+      <c r="W59" s="129"/>
+      <c r="X59" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="69"/>
-      <c r="AC59" s="84"/>
-      <c r="AD59" s="85"/>
-      <c r="AE59" s="85"/>
-      <c r="AF59" s="85"/>
-      <c r="AG59" s="85"/>
-      <c r="AH59" s="85"/>
-      <c r="AI59" s="86"/>
-      <c r="AJ59" s="56"/>
-      <c r="AK59" s="40"/>
-    </row>
-    <row r="60" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="Y59" s="129"/>
+      <c r="Z59" s="129"/>
+      <c r="AA59" s="129"/>
+      <c r="AB59" s="130"/>
+      <c r="AC59" s="131"/>
+      <c r="AD59" s="132"/>
+      <c r="AE59" s="132"/>
+      <c r="AF59" s="132"/>
+      <c r="AG59" s="132"/>
+      <c r="AH59" s="132"/>
+      <c r="AI59" s="133"/>
+      <c r="AJ59" s="126"/>
+      <c r="AK59" s="106"/>
+    </row>
+    <row r="60" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="74" t="s">
+      <c r="M60" s="104"/>
+      <c r="N60" s="113"/>
+      <c r="O60" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="P60" s="67" t="s">
+      <c r="P60" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="67" t="s">
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="129"/>
+      <c r="T60" s="129"/>
+      <c r="U60" s="129"/>
+      <c r="V60" s="129"/>
+      <c r="W60" s="129"/>
+      <c r="X60" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="69"/>
-      <c r="AC60" s="84"/>
-      <c r="AD60" s="85"/>
-      <c r="AE60" s="85"/>
-      <c r="AF60" s="85"/>
-      <c r="AG60" s="85"/>
-      <c r="AH60" s="85"/>
-      <c r="AI60" s="86"/>
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="40"/>
-    </row>
-    <row r="61" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="Y60" s="129"/>
+      <c r="Z60" s="129"/>
+      <c r="AA60" s="129"/>
+      <c r="AB60" s="130"/>
+      <c r="AC60" s="131"/>
+      <c r="AD60" s="132"/>
+      <c r="AE60" s="132"/>
+      <c r="AF60" s="132"/>
+      <c r="AG60" s="132"/>
+      <c r="AH60" s="132"/>
+      <c r="AI60" s="133"/>
+      <c r="AJ60" s="126"/>
+      <c r="AK60" s="106"/>
+    </row>
+    <row r="61" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="70" t="s">
+      <c r="M61" s="104"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="137"/>
+      <c r="P61" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="72"/>
-      <c r="AC61" s="87"/>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88"/>
-      <c r="AI61" s="89"/>
-      <c r="AJ61" s="56"/>
-      <c r="AK61" s="40"/>
-    </row>
-    <row r="62" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="Q61" s="139"/>
+      <c r="R61" s="139"/>
+      <c r="S61" s="139"/>
+      <c r="T61" s="139"/>
+      <c r="U61" s="139"/>
+      <c r="V61" s="139"/>
+      <c r="W61" s="139"/>
+      <c r="X61" s="138"/>
+      <c r="Y61" s="139"/>
+      <c r="Z61" s="139"/>
+      <c r="AA61" s="139"/>
+      <c r="AB61" s="140"/>
+      <c r="AC61" s="141"/>
+      <c r="AD61" s="142"/>
+      <c r="AE61" s="142"/>
+      <c r="AF61" s="142"/>
+      <c r="AG61" s="142"/>
+      <c r="AH61" s="142"/>
+      <c r="AI61" s="143"/>
+      <c r="AJ61" s="126"/>
+      <c r="AK61" s="106"/>
+    </row>
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="39"/>
       <c r="M62" s="39"/>
-      <c r="N62" s="55"/>
-      <c r="Q62" s="116" t="s">
+      <c r="N62" s="53"/>
+      <c r="Q62" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="R62" s="117"/>
-      <c r="S62" s="117"/>
-      <c r="T62" s="117"/>
-      <c r="U62" s="118"/>
-      <c r="AJ62" s="56"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="80"/>
+      <c r="U62" s="81"/>
+      <c r="AJ62" s="54"/>
       <c r="AK62" s="40"/>
     </row>
-    <row r="63" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="39"/>
       <c r="M63" s="39"/>
-      <c r="N63" s="55"/>
+      <c r="N63" s="53"/>
       <c r="S63" t="s">
         <v>134</v>
       </c>
-      <c r="AJ63" s="56"/>
-      <c r="AK63" s="40"/>
-    </row>
-    <row r="64" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="X63" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y63" s="101"/>
+      <c r="Z63" s="101"/>
+      <c r="AA63" s="101"/>
+      <c r="AB63" s="101"/>
+      <c r="AC63" s="101"/>
+      <c r="AD63" s="101"/>
+      <c r="AE63" s="101"/>
+      <c r="AF63" s="101"/>
+      <c r="AG63" s="101"/>
+      <c r="AH63" s="101"/>
+      <c r="AI63" s="101"/>
+      <c r="AJ63" s="103"/>
+      <c r="AK63" s="102"/>
+    </row>
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B64" s="39"/>
       <c r="M64" s="39"/>
-      <c r="N64" s="55"/>
-      <c r="AJ64" s="56"/>
+      <c r="N64" s="53"/>
+      <c r="AJ64" s="54"/>
       <c r="AK64" s="40"/>
     </row>
     <row r="65" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B65" s="39"/>
       <c r="M65" s="39"/>
-      <c r="N65" s="57" t="s">
+      <c r="N65" s="55" t="s">
         <v>76</v>
       </c>
       <c r="O65" t="s">
         <v>77</v>
       </c>
-      <c r="AJ65" s="56"/>
+      <c r="AJ65" s="54"/>
       <c r="AK65" s="40"/>
       <c r="AM65" t="s">
         <v>78</v>
@@ -3646,8 +3859,8 @@
     <row r="66" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B66" s="39"/>
       <c r="M66" s="39"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="60" t="s">
+      <c r="N66" s="53"/>
+      <c r="O66" s="57" t="s">
         <v>79</v>
       </c>
       <c r="P66" s="48" t="s">
@@ -3673,10 +3886,10 @@
       <c r="AD66" s="49"/>
       <c r="AE66" s="49"/>
       <c r="AF66" s="49"/>
-      <c r="AG66" s="90" t="s">
+      <c r="AG66" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AJ66" s="56"/>
+      <c r="AJ66" s="54"/>
       <c r="AK66" s="40"/>
       <c r="AM66" t="s">
         <v>83</v>
@@ -3685,35 +3898,35 @@
     <row r="67" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B67" s="39"/>
       <c r="M67" s="39"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="64" t="s">
+      <c r="N67" s="53"/>
+      <c r="O67" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="P67" s="106" t="s">
+      <c r="P67" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="Q67" s="107"/>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
-      <c r="T67" s="108"/>
-      <c r="U67" s="64" t="s">
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="94"/>
+      <c r="U67" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="V67" s="65"/>
-      <c r="W67" s="65"/>
-      <c r="X67" s="65"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="65"/>
-      <c r="AA67" s="66"/>
-      <c r="AB67" s="64" t="s">
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="62"/>
+      <c r="Z67" s="62"/>
+      <c r="AA67" s="63"/>
+      <c r="AB67" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="AC67" s="65"/>
-      <c r="AD67" s="65"/>
-      <c r="AE67" s="65"/>
-      <c r="AF67" s="65"/>
-      <c r="AG67" s="92"/>
-      <c r="AJ67" s="56"/>
+      <c r="AC67" s="62"/>
+      <c r="AD67" s="62"/>
+      <c r="AE67" s="62"/>
+      <c r="AF67" s="62"/>
+      <c r="AG67" s="77"/>
+      <c r="AJ67" s="54"/>
       <c r="AK67" s="40"/>
       <c r="AN67" t="s">
         <v>88</v>
@@ -3722,35 +3935,35 @@
     <row r="68" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B68" s="39"/>
       <c r="M68" s="39"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="67" t="s">
+      <c r="N68" s="53"/>
+      <c r="O68" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="109" t="s">
+      <c r="P68" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="Q68" s="110"/>
-      <c r="R68" s="110"/>
-      <c r="S68" s="110"/>
-      <c r="T68" s="111"/>
-      <c r="U68" s="67" t="s">
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="97"/>
+      <c r="U68" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="V68" s="68"/>
-      <c r="W68" s="68"/>
-      <c r="X68" s="68"/>
-      <c r="Y68" s="68"/>
-      <c r="Z68" s="68"/>
-      <c r="AA68" s="69"/>
-      <c r="AB68" s="67" t="s">
+      <c r="V68" s="65"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="65"/>
+      <c r="Y68" s="65"/>
+      <c r="Z68" s="65"/>
+      <c r="AA68" s="66"/>
+      <c r="AB68" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AC68" s="68"/>
-      <c r="AD68" s="68"/>
-      <c r="AE68" s="68"/>
-      <c r="AF68" s="68"/>
-      <c r="AG68" s="92"/>
-      <c r="AJ68" s="56"/>
+      <c r="AC68" s="65"/>
+      <c r="AD68" s="65"/>
+      <c r="AE68" s="65"/>
+      <c r="AF68" s="65"/>
+      <c r="AG68" s="77"/>
+      <c r="AJ68" s="54"/>
       <c r="AK68" s="40"/>
       <c r="AN68" t="s">
         <v>91</v>
@@ -3759,289 +3972,289 @@
     <row r="69" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B69" s="39"/>
       <c r="M69" s="39"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="67" t="s">
+      <c r="N69" s="53"/>
+      <c r="O69" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P69" s="109" t="s">
+      <c r="P69" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="Q69" s="110"/>
-      <c r="R69" s="110"/>
-      <c r="S69" s="110"/>
-      <c r="T69" s="111"/>
-      <c r="U69" s="67" t="s">
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="97"/>
+      <c r="U69" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="V69" s="68"/>
-      <c r="W69" s="68"/>
-      <c r="X69" s="68"/>
-      <c r="Y69" s="68"/>
-      <c r="Z69" s="68"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="67" t="s">
+      <c r="V69" s="65"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
+      <c r="AA69" s="66"/>
+      <c r="AB69" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AC69" s="68"/>
-      <c r="AD69" s="68"/>
-      <c r="AE69" s="68"/>
-      <c r="AF69" s="68"/>
-      <c r="AG69" s="92"/>
-      <c r="AJ69" s="56"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="77"/>
+      <c r="AJ69" s="54"/>
       <c r="AK69" s="40"/>
     </row>
     <row r="70" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B70" s="39"/>
       <c r="M70" s="39"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="67" t="s">
+      <c r="N70" s="53"/>
+      <c r="O70" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="P70" s="109" t="s">
+      <c r="P70" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="Q70" s="110"/>
-      <c r="R70" s="110"/>
-      <c r="S70" s="110"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="67" t="s">
+      <c r="Q70" s="96"/>
+      <c r="R70" s="96"/>
+      <c r="S70" s="96"/>
+      <c r="T70" s="97"/>
+      <c r="U70" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="V70" s="68"/>
-      <c r="W70" s="68"/>
-      <c r="X70" s="68"/>
-      <c r="Y70" s="68"/>
-      <c r="Z70" s="68"/>
-      <c r="AA70" s="69"/>
-      <c r="AB70" s="67" t="s">
+      <c r="V70" s="65"/>
+      <c r="W70" s="65"/>
+      <c r="X70" s="65"/>
+      <c r="Y70" s="65"/>
+      <c r="Z70" s="65"/>
+      <c r="AA70" s="66"/>
+      <c r="AB70" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AC70" s="68"/>
-      <c r="AD70" s="68"/>
-      <c r="AE70" s="68"/>
-      <c r="AF70" s="68"/>
-      <c r="AG70" s="92"/>
-      <c r="AJ70" s="56"/>
+      <c r="AC70" s="65"/>
+      <c r="AD70" s="65"/>
+      <c r="AE70" s="65"/>
+      <c r="AF70" s="65"/>
+      <c r="AG70" s="77"/>
+      <c r="AJ70" s="54"/>
       <c r="AK70" s="40"/>
     </row>
     <row r="71" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B71" s="39"/>
       <c r="M71" s="39"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="67" t="s">
+      <c r="N71" s="53"/>
+      <c r="O71" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P71" s="109" t="s">
+      <c r="P71" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="Q71" s="110"/>
-      <c r="R71" s="110"/>
-      <c r="S71" s="110"/>
-      <c r="T71" s="111"/>
-      <c r="U71" s="67" t="s">
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="97"/>
+      <c r="U71" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="V71" s="68"/>
-      <c r="W71" s="68"/>
-      <c r="X71" s="68"/>
-      <c r="Y71" s="68"/>
-      <c r="Z71" s="68"/>
-      <c r="AA71" s="69"/>
-      <c r="AB71" s="67" t="s">
+      <c r="V71" s="65"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AC71" s="68"/>
-      <c r="AD71" s="68"/>
-      <c r="AE71" s="68"/>
-      <c r="AF71" s="68"/>
-      <c r="AG71" s="92"/>
-      <c r="AJ71" s="56"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="77"/>
+      <c r="AJ71" s="54"/>
       <c r="AK71" s="40"/>
     </row>
     <row r="72" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B72" s="39"/>
       <c r="M72" s="39"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="67" t="s">
+      <c r="N72" s="53"/>
+      <c r="O72" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P72" s="109" t="s">
+      <c r="P72" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="110"/>
-      <c r="S72" s="110"/>
-      <c r="T72" s="111"/>
-      <c r="U72" s="67" t="s">
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="97"/>
+      <c r="U72" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="V72" s="68"/>
-      <c r="W72" s="68"/>
-      <c r="X72" s="68"/>
-      <c r="Y72" s="68"/>
-      <c r="Z72" s="68"/>
-      <c r="AA72" s="69"/>
-      <c r="AB72" s="67" t="s">
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="66"/>
+      <c r="AB72" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AC72" s="68"/>
-      <c r="AD72" s="68"/>
-      <c r="AE72" s="68"/>
-      <c r="AF72" s="68"/>
-      <c r="AG72" s="92"/>
-      <c r="AJ72" s="56"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="77"/>
+      <c r="AJ72" s="54"/>
       <c r="AK72" s="40"/>
     </row>
     <row r="73" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B73" s="39"/>
       <c r="M73" s="39"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="67" t="s">
+      <c r="N73" s="53"/>
+      <c r="O73" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P73" s="109" t="s">
+      <c r="P73" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="Q73" s="110"/>
-      <c r="R73" s="110"/>
-      <c r="S73" s="110"/>
-      <c r="T73" s="111"/>
-      <c r="U73" s="67" t="s">
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="97"/>
+      <c r="U73" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="V73" s="68"/>
-      <c r="W73" s="68"/>
-      <c r="X73" s="68"/>
-      <c r="Y73" s="68"/>
-      <c r="Z73" s="68"/>
-      <c r="AA73" s="69"/>
-      <c r="AB73" s="67" t="s">
+      <c r="V73" s="65"/>
+      <c r="W73" s="65"/>
+      <c r="X73" s="65"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+      <c r="AA73" s="66"/>
+      <c r="AB73" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AC73" s="68"/>
-      <c r="AD73" s="68"/>
-      <c r="AE73" s="68"/>
-      <c r="AF73" s="68"/>
-      <c r="AG73" s="92"/>
-      <c r="AJ73" s="56"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="77"/>
+      <c r="AJ73" s="54"/>
       <c r="AK73" s="40"/>
     </row>
     <row r="74" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B74" s="39"/>
       <c r="M74" s="39"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="67" t="s">
+      <c r="N74" s="53"/>
+      <c r="O74" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="P74" s="109" t="s">
+      <c r="P74" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="Q74" s="110"/>
-      <c r="R74" s="110"/>
-      <c r="S74" s="110"/>
-      <c r="T74" s="111"/>
-      <c r="U74" s="67" t="s">
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="97"/>
+      <c r="U74" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
-      <c r="X74" s="68"/>
-      <c r="Y74" s="68"/>
-      <c r="Z74" s="68"/>
-      <c r="AA74" s="69"/>
-      <c r="AB74" s="67" t="s">
+      <c r="V74" s="65"/>
+      <c r="W74" s="65"/>
+      <c r="X74" s="65"/>
+      <c r="Y74" s="65"/>
+      <c r="Z74" s="65"/>
+      <c r="AA74" s="66"/>
+      <c r="AB74" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="AC74" s="68"/>
-      <c r="AD74" s="68"/>
-      <c r="AE74" s="68"/>
-      <c r="AF74" s="68"/>
-      <c r="AG74" s="92"/>
-      <c r="AJ74" s="56"/>
+      <c r="AC74" s="65"/>
+      <c r="AD74" s="65"/>
+      <c r="AE74" s="65"/>
+      <c r="AF74" s="65"/>
+      <c r="AG74" s="77"/>
+      <c r="AJ74" s="54"/>
       <c r="AK74" s="40"/>
     </row>
     <row r="75" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B75" s="39"/>
       <c r="M75" s="39"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="67" t="s">
+      <c r="N75" s="53"/>
+      <c r="O75" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="P75" s="109" t="s">
+      <c r="P75" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="110"/>
-      <c r="S75" s="110"/>
-      <c r="T75" s="111"/>
-      <c r="U75" s="67" t="s">
+      <c r="Q75" s="96"/>
+      <c r="R75" s="96"/>
+      <c r="S75" s="96"/>
+      <c r="T75" s="97"/>
+      <c r="U75" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="V75" s="68"/>
-      <c r="W75" s="68"/>
-      <c r="X75" s="68"/>
-      <c r="Y75" s="68"/>
-      <c r="Z75" s="68"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="67" t="s">
+      <c r="V75" s="65"/>
+      <c r="W75" s="65"/>
+      <c r="X75" s="65"/>
+      <c r="Y75" s="65"/>
+      <c r="Z75" s="65"/>
+      <c r="AA75" s="66"/>
+      <c r="AB75" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="AC75" s="68"/>
-      <c r="AD75" s="68"/>
-      <c r="AE75" s="68"/>
-      <c r="AF75" s="68"/>
-      <c r="AG75" s="92"/>
-      <c r="AJ75" s="56"/>
+      <c r="AC75" s="65"/>
+      <c r="AD75" s="65"/>
+      <c r="AE75" s="65"/>
+      <c r="AF75" s="65"/>
+      <c r="AG75" s="77"/>
+      <c r="AJ75" s="54"/>
       <c r="AK75" s="40"/>
     </row>
     <row r="76" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B76" s="39"/>
       <c r="M76" s="39"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="70" t="s">
+      <c r="N76" s="53"/>
+      <c r="O76" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="P76" s="112" t="s">
+      <c r="P76" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="Q76" s="113"/>
-      <c r="R76" s="113"/>
-      <c r="S76" s="113"/>
-      <c r="T76" s="114"/>
-      <c r="U76" s="70" t="s">
+      <c r="Q76" s="99"/>
+      <c r="R76" s="99"/>
+      <c r="S76" s="99"/>
+      <c r="T76" s="100"/>
+      <c r="U76" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
-      <c r="AA76" s="72"/>
-      <c r="AB76" s="70" t="s">
+      <c r="V76" s="68"/>
+      <c r="W76" s="68"/>
+      <c r="X76" s="68"/>
+      <c r="Y76" s="68"/>
+      <c r="Z76" s="68"/>
+      <c r="AA76" s="69"/>
+      <c r="AB76" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="AC76" s="71"/>
-      <c r="AD76" s="71"/>
-      <c r="AE76" s="71"/>
-      <c r="AF76" s="71"/>
-      <c r="AG76" s="91" t="s">
+      <c r="AC76" s="68"/>
+      <c r="AD76" s="68"/>
+      <c r="AE76" s="68"/>
+      <c r="AF76" s="68"/>
+      <c r="AG76" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AJ76" s="56"/>
+      <c r="AJ76" s="54"/>
       <c r="AK76" s="40"/>
     </row>
     <row r="77" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B77" s="39"/>
       <c r="M77" s="39"/>
-      <c r="N77" s="55"/>
-      <c r="W77" s="116" t="s">
+      <c r="N77" s="53"/>
+      <c r="W77" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="X77" s="117"/>
-      <c r="Y77" s="117"/>
-      <c r="Z77" s="117"/>
-      <c r="AA77" s="118"/>
-      <c r="AJ77" s="56"/>
+      <c r="X77" s="80"/>
+      <c r="Y77" s="80"/>
+      <c r="Z77" s="80"/>
+      <c r="AA77" s="81"/>
+      <c r="AJ77" s="54"/>
       <c r="AK77" s="40"/>
       <c r="AM77" t="s">
         <v>109</v>
@@ -4050,11 +4263,11 @@
     <row r="78" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B78" s="39"/>
       <c r="M78" s="39"/>
-      <c r="N78" s="55"/>
+      <c r="N78" s="53"/>
       <c r="Y78" t="s">
         <v>134</v>
       </c>
-      <c r="AJ78" s="56"/>
+      <c r="AJ78" s="54"/>
       <c r="AK78" s="40"/>
       <c r="AM78" t="s">
         <v>110</v>
@@ -4063,67 +4276,67 @@
     <row r="79" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B79" s="39"/>
       <c r="M79" s="39"/>
-      <c r="N79" s="57" t="s">
+      <c r="N79" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="O79" s="53" t="s">
+      <c r="O79" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="54"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="51"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="51"/>
+      <c r="W79" s="51"/>
+      <c r="X79" s="51"/>
+      <c r="Y79" s="51"/>
+      <c r="Z79" s="51"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="51"/>
+      <c r="AJ79" s="52"/>
       <c r="AK79" s="40"/>
       <c r="AM79" t="s">
         <v>112</v>
       </c>
-      <c r="AW79" s="115"/>
-      <c r="AX79" s="115"/>
-      <c r="AY79" s="115"/>
-      <c r="AZ79" s="115"/>
-      <c r="BA79" s="115"/>
-      <c r="BB79" s="115"/>
-      <c r="BC79" s="115"/>
+      <c r="AW79" s="78"/>
+      <c r="AX79" s="78"/>
+      <c r="AY79" s="78"/>
+      <c r="AZ79" s="78"/>
+      <c r="BA79" s="78"/>
+      <c r="BB79" s="78"/>
+      <c r="BC79" s="78"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B80" s="39"/>
       <c r="M80" s="39"/>
-      <c r="N80" s="55"/>
-      <c r="AJ80" s="56"/>
+      <c r="N80" s="53"/>
+      <c r="AJ80" s="54"/>
       <c r="AK80" s="40"/>
       <c r="AM80" t="s">
         <v>113</v>
       </c>
-      <c r="AO80" s="115"/>
-      <c r="AP80" s="115"/>
-      <c r="AQ80" s="115"/>
-      <c r="AR80" s="115"/>
+      <c r="AO80" s="78"/>
+      <c r="AP80" s="78"/>
+      <c r="AQ80" s="78"/>
+      <c r="AR80" s="78"/>
     </row>
     <row r="81" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B81" s="39"/>
       <c r="M81" s="39"/>
-      <c r="N81" s="55"/>
+      <c r="N81" s="53"/>
       <c r="O81" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AJ81" s="56"/>
+      <c r="AJ81" s="54"/>
       <c r="AK81" s="40"/>
       <c r="AN81" t="s">
         <v>28</v>
@@ -4135,18 +4348,18 @@
     <row r="82" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B82" s="39"/>
       <c r="M82" s="39"/>
-      <c r="N82" s="57"/>
+      <c r="N82" s="55"/>
       <c r="O82" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AJ82" s="56"/>
+      <c r="AJ82" s="54"/>
       <c r="AK82" s="40"/>
     </row>
     <row r="83" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B83" s="39"/>
       <c r="M83" s="39"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="61" t="s">
+      <c r="N83" s="56"/>
+      <c r="O83" s="58" t="s">
         <v>34</v>
       </c>
       <c r="P83" s="49" t="s">
@@ -4165,15 +4378,15 @@
       <c r="AA83" s="49"/>
       <c r="AB83" s="49"/>
       <c r="AC83" s="49"/>
-      <c r="AD83" s="79"/>
+      <c r="AD83" s="73"/>
       <c r="AE83" s="49"/>
       <c r="AF83" s="49"/>
-      <c r="AG83" s="80" t="s">
+      <c r="AG83" s="74" t="s">
         <v>36</v>
       </c>
       <c r="AH83" s="49"/>
       <c r="AI83" s="50"/>
-      <c r="AJ83" s="56"/>
+      <c r="AJ83" s="54"/>
       <c r="AK83" s="40"/>
       <c r="AM83" t="s">
         <v>117</v>
@@ -4182,7 +4395,7 @@
     <row r="84" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B84" s="39"/>
       <c r="M84" s="39"/>
-      <c r="N84" s="55"/>
+      <c r="N84" s="53"/>
       <c r="O84" s="48" t="s">
         <v>34</v>
       </c>
@@ -4202,15 +4415,15 @@
       <c r="AA84" s="49"/>
       <c r="AB84" s="49"/>
       <c r="AC84" s="49"/>
-      <c r="AD84" s="79"/>
+      <c r="AD84" s="73"/>
       <c r="AE84" s="49"/>
       <c r="AF84" s="49"/>
-      <c r="AG84" s="80" t="s">
+      <c r="AG84" s="74" t="s">
         <v>36</v>
       </c>
       <c r="AH84" s="49"/>
       <c r="AI84" s="50"/>
-      <c r="AJ84" s="56"/>
+      <c r="AJ84" s="54"/>
       <c r="AK84" s="40"/>
       <c r="AN84" t="s">
         <v>28</v>
@@ -4222,8 +4435,8 @@
     <row r="85" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B85" s="39"/>
       <c r="M85" s="39"/>
-      <c r="N85" s="55"/>
-      <c r="AJ85" s="56"/>
+      <c r="N85" s="53"/>
+      <c r="AJ85" s="54"/>
       <c r="AK85" s="40"/>
       <c r="AN85" t="s">
         <v>28</v>
@@ -4235,77 +4448,77 @@
     <row r="86" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B86" s="39"/>
       <c r="M86" s="39"/>
-      <c r="N86" s="61" t="s">
+      <c r="N86" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="O86" s="77" t="s">
+      <c r="O86" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="62"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="62"/>
-      <c r="U86" s="62"/>
-      <c r="V86" s="62"/>
-      <c r="W86" s="62"/>
-      <c r="X86" s="62"/>
-      <c r="Y86" s="62"/>
-      <c r="Z86" s="62"/>
-      <c r="AA86" s="62"/>
-      <c r="AB86" s="62"/>
-      <c r="AC86" s="62"/>
-      <c r="AD86" s="62"/>
-      <c r="AE86" s="62"/>
-      <c r="AF86" s="62"/>
-      <c r="AG86" s="62"/>
-      <c r="AH86" s="62"/>
-      <c r="AI86" s="62"/>
-      <c r="AJ86" s="63"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
+      <c r="X86" s="59"/>
+      <c r="Y86" s="59"/>
+      <c r="Z86" s="59"/>
+      <c r="AA86" s="59"/>
+      <c r="AB86" s="59"/>
+      <c r="AC86" s="59"/>
+      <c r="AD86" s="59"/>
+      <c r="AE86" s="59"/>
+      <c r="AF86" s="59"/>
+      <c r="AG86" s="59"/>
+      <c r="AH86" s="59"/>
+      <c r="AI86" s="59"/>
+      <c r="AJ86" s="60"/>
       <c r="AK86" s="40"/>
     </row>
     <row r="87" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B87" s="39"/>
       <c r="M87" s="39"/>
-      <c r="N87" s="55"/>
-      <c r="AJ87" s="56"/>
+      <c r="N87" s="53"/>
+      <c r="AJ87" s="54"/>
       <c r="AK87" s="40"/>
-      <c r="AM87" s="102" t="s">
+      <c r="AM87" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="AN87" s="102"/>
-      <c r="AO87" s="102"/>
-      <c r="AP87" s="102"/>
-      <c r="AQ87" s="102"/>
-      <c r="AR87" s="102"/>
-      <c r="AS87" s="102"/>
-      <c r="AT87" s="102"/>
-      <c r="AU87" s="102"/>
-      <c r="AV87" s="102"/>
-      <c r="AW87" s="102"/>
-      <c r="AX87" s="102"/>
-      <c r="AY87" s="102"/>
-      <c r="AZ87" s="102"/>
-      <c r="BA87" s="102"/>
-      <c r="BB87" s="102"/>
-      <c r="BC87" s="102"/>
-      <c r="BD87" s="102"/>
-      <c r="BE87" s="102"/>
-      <c r="BF87" s="102"/>
-      <c r="BG87" s="102"/>
-      <c r="BH87" s="102"/>
-      <c r="BI87" s="102"/>
-      <c r="BJ87" s="102"/>
-      <c r="BK87" s="102"/>
-      <c r="BL87" s="102"/>
-      <c r="BM87" s="102"/>
-      <c r="BN87" s="102"/>
-      <c r="BO87" s="102"/>
-      <c r="BP87" s="102"/>
-      <c r="BQ87" s="102"/>
-      <c r="BR87" s="102"/>
-      <c r="BS87" s="102"/>
-      <c r="BT87" s="102"/>
+      <c r="AN87" s="91"/>
+      <c r="AO87" s="91"/>
+      <c r="AP87" s="91"/>
+      <c r="AQ87" s="91"/>
+      <c r="AR87" s="91"/>
+      <c r="AS87" s="91"/>
+      <c r="AT87" s="91"/>
+      <c r="AU87" s="91"/>
+      <c r="AV87" s="91"/>
+      <c r="AW87" s="91"/>
+      <c r="AX87" s="91"/>
+      <c r="AY87" s="91"/>
+      <c r="AZ87" s="91"/>
+      <c r="BA87" s="91"/>
+      <c r="BB87" s="91"/>
+      <c r="BC87" s="91"/>
+      <c r="BD87" s="91"/>
+      <c r="BE87" s="91"/>
+      <c r="BF87" s="91"/>
+      <c r="BG87" s="91"/>
+      <c r="BH87" s="91"/>
+      <c r="BI87" s="91"/>
+      <c r="BJ87" s="91"/>
+      <c r="BK87" s="91"/>
+      <c r="BL87" s="91"/>
+      <c r="BM87" s="91"/>
+      <c r="BN87" s="91"/>
+      <c r="BO87" s="91"/>
+      <c r="BP87" s="91"/>
+      <c r="BQ87" s="91"/>
+      <c r="BR87" s="91"/>
+      <c r="BS87" s="91"/>
+      <c r="BT87" s="91"/>
     </row>
     <row r="88" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B88" s="39"/>
@@ -4494,7 +4707,7 @@
         <v>24</v>
       </c>
       <c r="M96" s="39"/>
-      <c r="N96" s="76"/>
+      <c r="N96" s="70"/>
       <c r="AK96" s="40"/>
     </row>
     <row r="97" spans="2:69" x14ac:dyDescent="0.2">
@@ -4513,7 +4726,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="39"/>
-      <c r="N97" s="78" t="s">
+      <c r="N97" s="72" t="s">
         <v>126</v>
       </c>
       <c r="O97" s="45"/>
@@ -4596,39 +4809,39 @@
         <v>36</v>
       </c>
       <c r="AK99" s="40"/>
-      <c r="AM99" s="102" t="s">
+      <c r="AM99" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="AN99" s="102"/>
-      <c r="AO99" s="102"/>
-      <c r="AP99" s="102"/>
-      <c r="AQ99" s="102"/>
-      <c r="AR99" s="102"/>
-      <c r="AS99" s="102"/>
-      <c r="AT99" s="102"/>
-      <c r="AU99" s="102"/>
-      <c r="AV99" s="102"/>
-      <c r="AW99" s="102"/>
-      <c r="AX99" s="102"/>
-      <c r="AY99" s="102"/>
-      <c r="AZ99" s="102"/>
-      <c r="BA99" s="102"/>
-      <c r="BB99" s="102"/>
-      <c r="BC99" s="102"/>
-      <c r="BD99" s="102"/>
-      <c r="BE99" s="102"/>
-      <c r="BF99" s="102"/>
-      <c r="BG99" s="102"/>
-      <c r="BH99" s="102"/>
-      <c r="BI99" s="102"/>
-      <c r="BJ99" s="102"/>
-      <c r="BK99" s="102"/>
-      <c r="BL99" s="102"/>
-      <c r="BM99" s="102"/>
-      <c r="BN99" s="102"/>
-      <c r="BO99" s="102"/>
-      <c r="BP99" s="102"/>
-      <c r="BQ99" s="102"/>
+      <c r="AN99" s="91"/>
+      <c r="AO99" s="91"/>
+      <c r="AP99" s="91"/>
+      <c r="AQ99" s="91"/>
+      <c r="AR99" s="91"/>
+      <c r="AS99" s="91"/>
+      <c r="AT99" s="91"/>
+      <c r="AU99" s="91"/>
+      <c r="AV99" s="91"/>
+      <c r="AW99" s="91"/>
+      <c r="AX99" s="91"/>
+      <c r="AY99" s="91"/>
+      <c r="AZ99" s="91"/>
+      <c r="BA99" s="91"/>
+      <c r="BB99" s="91"/>
+      <c r="BC99" s="91"/>
+      <c r="BD99" s="91"/>
+      <c r="BE99" s="91"/>
+      <c r="BF99" s="91"/>
+      <c r="BG99" s="91"/>
+      <c r="BH99" s="91"/>
+      <c r="BI99" s="91"/>
+      <c r="BJ99" s="91"/>
+      <c r="BK99" s="91"/>
+      <c r="BL99" s="91"/>
+      <c r="BM99" s="91"/>
+      <c r="BN99" s="91"/>
+      <c r="BO99" s="91"/>
+      <c r="BP99" s="91"/>
+      <c r="BQ99" s="91"/>
     </row>
     <row r="100" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B100" s="39"/>
@@ -4909,6 +5122,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100181CC8CE52E4914F9BDA98FF41419CD8" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dec1bab137ac81610f64b5552c534649">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5cca77ae-ca29-426b-9678-f1e58ee37e89" xmlns:ns4="ffd51e64-66fd-45c8-80ae-e3b83ca67b19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cae6b1b69a19210c665e838258e55647" ns3:_="" ns4:_="">
     <xsd:import namespace="5cca77ae-ca29-426b-9678-f1e58ee37e89"/>
@@ -5147,15 +5369,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8EC494-AFF2-4C99-A659-E29C981B1888}">
   <ds:schemaRefs>
@@ -5174,6 +5387,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1C2824-CDE2-4F18-BB56-FE453D8E814D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66C0F83-B37B-4FC5-9E2B-CCC18EAF7A3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5190,12 +5411,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1C2824-CDE2-4F18-BB56-FE453D8E814D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DarftUI.xlsx
+++ b/DarftUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\STD_Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A53E0-FCB0-4AF4-ACB3-645434C8DE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78398E-840D-44E8-A4D1-ACC196E68ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7425" tabRatio="526" firstSheet="1" activeTab="1" xr2:uid="{0181C50A-6E40-4326-8B7A-750EB5EA9C57}"/>
   </bookViews>
@@ -1415,63 +1415,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="2" applyBorder="1"/>
@@ -1521,6 +1464,43 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="51" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="52" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1530,13 +1510,33 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="52" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2122,6 +2122,117 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Notched Right 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599110AF-E7DD-48ED-807E-E2E2FE48D4F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20458431">
+          <a:off x="12576175" y="7699375"/>
+          <a:ext cx="1600200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>4533</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19C1B99-6A73-41C2-BDDA-4975DF84029D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668501" y="5772151"/>
+          <a:ext cx="7364182" cy="3823550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2515,22 +2626,22 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="125" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="125" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="122" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="21"/>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="125" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2542,18 +2653,18 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="89"/>
+      <c r="G5" s="129"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="89"/>
+      <c r="I5" s="129"/>
       <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="83"/>
+      <c r="M5" s="123"/>
       <c r="O5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="21"/>
-      <c r="R5" s="86"/>
+      <c r="R5" s="126"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -2567,20 +2678,20 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="89"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="89"/>
+      <c r="I6" s="129"/>
       <c r="J6" s="5"/>
       <c r="K6" s="33"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="83"/>
+      <c r="M6" s="123"/>
       <c r="N6" s="5"/>
       <c r="O6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="87"/>
+      <c r="R6" s="127"/>
       <c r="S6" t="s">
         <v>15</v>
       </c>
@@ -2593,18 +2704,18 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="89"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="89"/>
+      <c r="I7" s="129"/>
       <c r="K7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="83"/>
+      <c r="M7" s="123"/>
       <c r="O7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P7" s="21"/>
-      <c r="R7" s="86"/>
+      <c r="R7" s="126"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -2618,33 +2729,33 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="89"/>
+      <c r="G8" s="129"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="89"/>
+      <c r="I8" s="129"/>
       <c r="K8" s="31"/>
-      <c r="M8" s="83"/>
+      <c r="M8" s="123"/>
       <c r="O8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="21"/>
-      <c r="R8" s="86"/>
+      <c r="R8" s="126"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="90"/>
-      <c r="I9" s="90"/>
+      <c r="G9" s="130"/>
+      <c r="I9" s="130"/>
       <c r="K9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="84"/>
+      <c r="M9" s="124"/>
       <c r="O9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="21"/>
-      <c r="R9" s="88"/>
+      <c r="R9" s="128"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F10" s="24"/>
@@ -2695,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672BD6B-A6D8-4D3C-AB51-996EEF3418D5}">
   <dimension ref="B2:BT135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA48" sqref="BA48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I36" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BK62" sqref="BK62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3232,45 +3343,45 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="104"/>
-      <c r="N48" s="105" t="s">
+      <c r="M48" s="85"/>
+      <c r="N48" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="101" t="s">
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="101"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="101"/>
-      <c r="AH48" s="101"/>
-      <c r="AI48" s="101"/>
-      <c r="AJ48" s="101"/>
-      <c r="AK48" s="102"/>
-      <c r="AL48" s="101"/>
-      <c r="AM48" s="101"/>
-      <c r="AN48" s="101"/>
-      <c r="AO48" s="101"/>
-      <c r="AP48" s="101"/>
-      <c r="AQ48" s="101"/>
-      <c r="AR48" s="101"/>
-      <c r="AS48" s="101"/>
-      <c r="AT48" s="101"/>
-      <c r="AU48" s="101"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="82"/>
+      <c r="AD48" s="82"/>
+      <c r="AE48" s="82"/>
+      <c r="AF48" s="82"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="83"/>
+      <c r="AL48" s="82"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="82"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="82"/>
+      <c r="AQ48" s="82"/>
+      <c r="AR48" s="82"/>
+      <c r="AS48" s="82"/>
+      <c r="AT48" s="82"/>
+      <c r="AU48" s="82"/>
     </row>
     <row r="49" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="39"/>
@@ -3287,45 +3398,45 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="105"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="101" t="s">
+      <c r="M49" s="85"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="101"/>
-      <c r="AA49" s="101"/>
-      <c r="AB49" s="101"/>
-      <c r="AC49" s="101"/>
-      <c r="AD49" s="101"/>
-      <c r="AE49" s="101"/>
-      <c r="AF49" s="101"/>
-      <c r="AG49" s="101"/>
-      <c r="AH49" s="101"/>
-      <c r="AI49" s="101"/>
-      <c r="AJ49" s="101"/>
-      <c r="AK49" s="102"/>
-      <c r="AL49" s="101"/>
-      <c r="AM49" s="101" t="s">
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="82"/>
+      <c r="AE49" s="82"/>
+      <c r="AF49" s="82"/>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="83"/>
+      <c r="AL49" s="82"/>
+      <c r="AM49" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AN49" s="101"/>
-      <c r="AO49" s="101"/>
-      <c r="AP49" s="101"/>
-      <c r="AQ49" s="101"/>
-      <c r="AR49" s="101"/>
-      <c r="AS49" s="101"/>
-      <c r="AT49" s="101"/>
-      <c r="AU49" s="101"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="82"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="82"/>
+      <c r="AS49" s="82"/>
+      <c r="AT49" s="82"/>
+      <c r="AU49" s="82"/>
     </row>
     <row r="50" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="39"/>
@@ -3335,37 +3446,37 @@
       <c r="E50" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="104"/>
-      <c r="N50" s="105" t="s">
+      <c r="M50" s="85"/>
+      <c r="N50" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="107" t="s">
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="T50" s="108"/>
-      <c r="U50" s="108"/>
-      <c r="V50" s="109" t="s">
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="W50" s="105"/>
-      <c r="X50" s="105"/>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="105"/>
-      <c r="AA50" s="105"/>
-      <c r="AB50" s="105"/>
-      <c r="AC50" s="105"/>
-      <c r="AD50" s="105"/>
-      <c r="AE50" s="105"/>
-      <c r="AF50" s="105"/>
-      <c r="AG50" s="105"/>
-      <c r="AH50" s="105"/>
-      <c r="AI50" s="105"/>
-      <c r="AJ50" s="105"/>
-      <c r="AK50" s="106"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="86"/>
+      <c r="Y50" s="86"/>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="86"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="86"/>
+      <c r="AE50" s="86"/>
+      <c r="AF50" s="86"/>
+      <c r="AG50" s="86"/>
+      <c r="AH50" s="86"/>
+      <c r="AI50" s="86"/>
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="87"/>
     </row>
     <row r="51" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="39"/>
@@ -3375,31 +3486,31 @@
       <c r="E51" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="104"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="105"/>
-      <c r="S51" s="105"/>
-      <c r="T51" s="105"/>
-      <c r="U51" s="105"/>
-      <c r="V51" s="105"/>
-      <c r="W51" s="105"/>
-      <c r="X51" s="105"/>
-      <c r="Y51" s="105"/>
-      <c r="Z51" s="105"/>
-      <c r="AA51" s="105"/>
-      <c r="AB51" s="105"/>
-      <c r="AC51" s="105"/>
-      <c r="AD51" s="105"/>
-      <c r="AE51" s="105"/>
-      <c r="AF51" s="105"/>
-      <c r="AG51" s="105"/>
-      <c r="AH51" s="105"/>
-      <c r="AI51" s="105"/>
-      <c r="AJ51" s="105"/>
-      <c r="AK51" s="106"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="86"/>
+      <c r="X51" s="86"/>
+      <c r="Y51" s="86"/>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="86"/>
+      <c r="AB51" s="86"/>
+      <c r="AC51" s="86"/>
+      <c r="AD51" s="86"/>
+      <c r="AE51" s="86"/>
+      <c r="AF51" s="86"/>
+      <c r="AG51" s="86"/>
+      <c r="AH51" s="86"/>
+      <c r="AI51" s="86"/>
+      <c r="AJ51" s="86"/>
+      <c r="AK51" s="87"/>
     </row>
     <row r="52" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="39"/>
@@ -3409,31 +3520,31 @@
       <c r="E52" t="s">
         <v>37</v>
       </c>
-      <c r="M52" s="104"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="105"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="105"/>
-      <c r="W52" s="105"/>
-      <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="105"/>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="105"/>
-      <c r="AC52" s="105"/>
-      <c r="AD52" s="105"/>
-      <c r="AE52" s="105"/>
-      <c r="AF52" s="105"/>
-      <c r="AG52" s="105"/>
-      <c r="AH52" s="105"/>
-      <c r="AI52" s="105"/>
-      <c r="AJ52" s="105"/>
-      <c r="AK52" s="106"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="86"/>
+      <c r="AC52" s="86"/>
+      <c r="AD52" s="86"/>
+      <c r="AE52" s="86"/>
+      <c r="AF52" s="86"/>
+      <c r="AG52" s="86"/>
+      <c r="AH52" s="86"/>
+      <c r="AI52" s="86"/>
+      <c r="AJ52" s="86"/>
+      <c r="AK52" s="87"/>
     </row>
     <row r="53" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="39"/>
@@ -3443,33 +3554,33 @@
       <c r="E53" t="s">
         <v>39</v>
       </c>
-      <c r="M53" s="104"/>
-      <c r="N53" s="110" t="s">
+      <c r="M53" s="85"/>
+      <c r="N53" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="O53" s="111"/>
-      <c r="P53" s="111"/>
-      <c r="Q53" s="111"/>
-      <c r="R53" s="111"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="111"/>
-      <c r="W53" s="111"/>
-      <c r="X53" s="111"/>
-      <c r="Y53" s="111"/>
-      <c r="Z53" s="111"/>
-      <c r="AA53" s="111"/>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="111"/>
-      <c r="AE53" s="111"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="111"/>
-      <c r="AH53" s="111"/>
-      <c r="AI53" s="111"/>
-      <c r="AJ53" s="112"/>
-      <c r="AK53" s="106"/>
+      <c r="O53" s="92"/>
+      <c r="P53" s="92"/>
+      <c r="Q53" s="92"/>
+      <c r="R53" s="92"/>
+      <c r="S53" s="92"/>
+      <c r="T53" s="92"/>
+      <c r="U53" s="92"/>
+      <c r="V53" s="92"/>
+      <c r="W53" s="92"/>
+      <c r="X53" s="92"/>
+      <c r="Y53" s="92"/>
+      <c r="Z53" s="92"/>
+      <c r="AA53" s="92"/>
+      <c r="AB53" s="92"/>
+      <c r="AC53" s="92"/>
+      <c r="AD53" s="92"/>
+      <c r="AE53" s="92"/>
+      <c r="AF53" s="92"/>
+      <c r="AG53" s="92"/>
+      <c r="AH53" s="92"/>
+      <c r="AI53" s="92"/>
+      <c r="AJ53" s="93"/>
+      <c r="AK53" s="87"/>
       <c r="AM53" t="s">
         <v>51</v>
       </c>
@@ -3482,39 +3593,39 @@
       <c r="E54" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="104"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="114" t="s">
+      <c r="M54" s="85"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="P54" s="115" t="s">
+      <c r="P54" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="115" t="s">
+      <c r="Q54" s="97"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="97"/>
+      <c r="V54" s="97"/>
+      <c r="W54" s="97"/>
+      <c r="X54" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="Y54" s="116"/>
-      <c r="Z54" s="116"/>
-      <c r="AA54" s="116"/>
-      <c r="AB54" s="117"/>
-      <c r="AC54" s="115" t="s">
+      <c r="Y54" s="97"/>
+      <c r="Z54" s="97"/>
+      <c r="AA54" s="97"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="AD54" s="116"/>
-      <c r="AE54" s="108"/>
-      <c r="AF54" s="108"/>
-      <c r="AG54" s="108"/>
-      <c r="AH54" s="108"/>
-      <c r="AI54" s="109"/>
-      <c r="AJ54" s="118"/>
-      <c r="AK54" s="106"/>
+      <c r="AD54" s="97"/>
+      <c r="AE54" s="89"/>
+      <c r="AF54" s="89"/>
+      <c r="AG54" s="89"/>
+      <c r="AH54" s="89"/>
+      <c r="AI54" s="90"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="87"/>
       <c r="AN54" t="s">
         <v>28</v>
       </c>
@@ -3527,37 +3638,37 @@
       <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="119" t="s">
+      <c r="M55" s="85"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="P55" s="120" t="s">
+      <c r="P55" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="Q55" s="121"/>
-      <c r="R55" s="121"/>
-      <c r="S55" s="121"/>
-      <c r="T55" s="121"/>
-      <c r="U55" s="121"/>
-      <c r="V55" s="121"/>
-      <c r="W55" s="121"/>
-      <c r="X55" s="120" t="s">
+      <c r="Q55" s="102"/>
+      <c r="R55" s="102"/>
+      <c r="S55" s="102"/>
+      <c r="T55" s="102"/>
+      <c r="U55" s="102"/>
+      <c r="V55" s="102"/>
+      <c r="W55" s="102"/>
+      <c r="X55" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="Y55" s="121"/>
-      <c r="Z55" s="121"/>
-      <c r="AA55" s="121"/>
-      <c r="AB55" s="122"/>
-      <c r="AC55" s="123"/>
-      <c r="AD55" s="124"/>
-      <c r="AE55" s="124"/>
-      <c r="AF55" s="124"/>
-      <c r="AG55" s="124"/>
-      <c r="AH55" s="124"/>
-      <c r="AI55" s="125"/>
-      <c r="AJ55" s="126"/>
-      <c r="AK55" s="106"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="102"/>
+      <c r="AA55" s="102"/>
+      <c r="AB55" s="103"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="105"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="105"/>
+      <c r="AG55" s="105"/>
+      <c r="AH55" s="105"/>
+      <c r="AI55" s="106"/>
+      <c r="AJ55" s="107"/>
+      <c r="AK55" s="87"/>
       <c r="AN55" t="s">
         <v>28</v>
       </c>
@@ -3571,37 +3682,37 @@
         <v>42</v>
       </c>
       <c r="D56" s="47"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="127" t="s">
+      <c r="M56" s="85"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="P56" s="128" t="s">
+      <c r="P56" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="129"/>
-      <c r="S56" s="129"/>
-      <c r="T56" s="129"/>
-      <c r="U56" s="129"/>
-      <c r="V56" s="129"/>
-      <c r="W56" s="129"/>
-      <c r="X56" s="128" t="s">
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="110"/>
+      <c r="V56" s="110"/>
+      <c r="W56" s="110"/>
+      <c r="X56" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="129"/>
-      <c r="AA56" s="129"/>
-      <c r="AB56" s="130"/>
-      <c r="AC56" s="131"/>
-      <c r="AD56" s="132"/>
-      <c r="AE56" s="132"/>
-      <c r="AF56" s="132"/>
-      <c r="AG56" s="132"/>
-      <c r="AH56" s="132"/>
-      <c r="AI56" s="133"/>
-      <c r="AJ56" s="126"/>
-      <c r="AK56" s="106"/>
+      <c r="Y56" s="110"/>
+      <c r="Z56" s="110"/>
+      <c r="AA56" s="110"/>
+      <c r="AB56" s="111"/>
+      <c r="AC56" s="112"/>
+      <c r="AD56" s="113"/>
+      <c r="AE56" s="113"/>
+      <c r="AF56" s="113"/>
+      <c r="AG56" s="113"/>
+      <c r="AH56" s="113"/>
+      <c r="AI56" s="114"/>
+      <c r="AJ56" s="107"/>
+      <c r="AK56" s="87"/>
       <c r="AN56" t="s">
         <v>28</v>
       </c>
@@ -3618,39 +3729,39 @@
         <v>43</v>
       </c>
       <c r="F57" s="47"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="113"/>
-      <c r="O57" s="127" t="s">
+      <c r="M57" s="85"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="128" t="s">
+      <c r="P57" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
-      <c r="S57" s="129"/>
-      <c r="T57" s="129"/>
-      <c r="U57" s="129"/>
-      <c r="V57" s="129"/>
-      <c r="W57" s="129"/>
-      <c r="X57" s="128" t="s">
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="110"/>
+      <c r="U57" s="110"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="Y57" s="129"/>
-      <c r="Z57" s="129"/>
-      <c r="AA57" s="129"/>
-      <c r="AB57" s="130"/>
-      <c r="AC57" s="134" t="s">
+      <c r="Y57" s="110"/>
+      <c r="Z57" s="110"/>
+      <c r="AA57" s="110"/>
+      <c r="AB57" s="111"/>
+      <c r="AC57" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="135"/>
-      <c r="AF57" s="135"/>
-      <c r="AG57" s="135"/>
-      <c r="AH57" s="135"/>
-      <c r="AI57" s="136"/>
-      <c r="AJ57" s="126"/>
-      <c r="AK57" s="106"/>
+      <c r="AD57" s="133"/>
+      <c r="AE57" s="133"/>
+      <c r="AF57" s="133"/>
+      <c r="AG57" s="133"/>
+      <c r="AH57" s="133"/>
+      <c r="AI57" s="134"/>
+      <c r="AJ57" s="107"/>
+      <c r="AK57" s="87"/>
       <c r="AN57" t="s">
         <v>28</v>
       </c>
@@ -3666,135 +3777,135 @@
       <c r="E58" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="104"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="127" t="s">
+      <c r="M58" s="85"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="P58" s="128" t="s">
+      <c r="P58" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="129"/>
-      <c r="V58" s="129"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="128" t="s">
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
+      <c r="T58" s="110"/>
+      <c r="U58" s="110"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
+      <c r="X58" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="Y58" s="129"/>
-      <c r="Z58" s="129"/>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="130"/>
-      <c r="AC58" s="131"/>
-      <c r="AD58" s="132"/>
-      <c r="AE58" s="132"/>
-      <c r="AF58" s="132"/>
-      <c r="AG58" s="132"/>
-      <c r="AH58" s="132"/>
-      <c r="AI58" s="133"/>
-      <c r="AJ58" s="126"/>
-      <c r="AK58" s="106"/>
+      <c r="Y58" s="110"/>
+      <c r="Z58" s="110"/>
+      <c r="AA58" s="110"/>
+      <c r="AB58" s="111"/>
+      <c r="AC58" s="112"/>
+      <c r="AD58" s="113"/>
+      <c r="AE58" s="113"/>
+      <c r="AF58" s="113"/>
+      <c r="AG58" s="113"/>
+      <c r="AH58" s="113"/>
+      <c r="AI58" s="114"/>
+      <c r="AJ58" s="107"/>
+      <c r="AK58" s="87"/>
     </row>
     <row r="59" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="39"/>
-      <c r="M59" s="104"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="127" t="s">
+      <c r="M59" s="85"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="P59" s="128" t="s">
+      <c r="P59" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
-      <c r="T59" s="129"/>
-      <c r="U59" s="129"/>
-      <c r="V59" s="129"/>
-      <c r="W59" s="129"/>
-      <c r="X59" s="128" t="s">
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="110"/>
+      <c r="T59" s="110"/>
+      <c r="U59" s="110"/>
+      <c r="V59" s="110"/>
+      <c r="W59" s="110"/>
+      <c r="X59" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="Y59" s="129"/>
-      <c r="Z59" s="129"/>
-      <c r="AA59" s="129"/>
-      <c r="AB59" s="130"/>
-      <c r="AC59" s="131"/>
-      <c r="AD59" s="132"/>
-      <c r="AE59" s="132"/>
-      <c r="AF59" s="132"/>
-      <c r="AG59" s="132"/>
-      <c r="AH59" s="132"/>
-      <c r="AI59" s="133"/>
-      <c r="AJ59" s="126"/>
-      <c r="AK59" s="106"/>
+      <c r="Y59" s="110"/>
+      <c r="Z59" s="110"/>
+      <c r="AA59" s="110"/>
+      <c r="AB59" s="111"/>
+      <c r="AC59" s="112"/>
+      <c r="AD59" s="113"/>
+      <c r="AE59" s="113"/>
+      <c r="AF59" s="113"/>
+      <c r="AG59" s="113"/>
+      <c r="AH59" s="113"/>
+      <c r="AI59" s="114"/>
+      <c r="AJ59" s="107"/>
+      <c r="AK59" s="87"/>
     </row>
     <row r="60" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="39"/>
-      <c r="M60" s="104"/>
-      <c r="N60" s="113"/>
-      <c r="O60" s="127" t="s">
+      <c r="M60" s="85"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="P60" s="128" t="s">
+      <c r="P60" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="129"/>
-      <c r="U60" s="129"/>
-      <c r="V60" s="129"/>
-      <c r="W60" s="129"/>
-      <c r="X60" s="128" t="s">
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="110"/>
+      <c r="T60" s="110"/>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
+      <c r="W60" s="110"/>
+      <c r="X60" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="Y60" s="129"/>
-      <c r="Z60" s="129"/>
-      <c r="AA60" s="129"/>
-      <c r="AB60" s="130"/>
-      <c r="AC60" s="131"/>
-      <c r="AD60" s="132"/>
-      <c r="AE60" s="132"/>
-      <c r="AF60" s="132"/>
-      <c r="AG60" s="132"/>
-      <c r="AH60" s="132"/>
-      <c r="AI60" s="133"/>
-      <c r="AJ60" s="126"/>
-      <c r="AK60" s="106"/>
+      <c r="Y60" s="110"/>
+      <c r="Z60" s="110"/>
+      <c r="AA60" s="110"/>
+      <c r="AB60" s="111"/>
+      <c r="AC60" s="112"/>
+      <c r="AD60" s="113"/>
+      <c r="AE60" s="113"/>
+      <c r="AF60" s="113"/>
+      <c r="AG60" s="113"/>
+      <c r="AH60" s="113"/>
+      <c r="AI60" s="114"/>
+      <c r="AJ60" s="107"/>
+      <c r="AK60" s="87"/>
     </row>
     <row r="61" spans="2:47" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="39"/>
-      <c r="M61" s="104"/>
-      <c r="N61" s="113"/>
-      <c r="O61" s="137"/>
-      <c r="P61" s="138" t="s">
+      <c r="M61" s="85"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="139"/>
-      <c r="S61" s="139"/>
-      <c r="T61" s="139"/>
-      <c r="U61" s="139"/>
-      <c r="V61" s="139"/>
-      <c r="W61" s="139"/>
-      <c r="X61" s="138"/>
-      <c r="Y61" s="139"/>
-      <c r="Z61" s="139"/>
-      <c r="AA61" s="139"/>
-      <c r="AB61" s="140"/>
-      <c r="AC61" s="141"/>
-      <c r="AD61" s="142"/>
-      <c r="AE61" s="142"/>
-      <c r="AF61" s="142"/>
-      <c r="AG61" s="142"/>
-      <c r="AH61" s="142"/>
-      <c r="AI61" s="143"/>
-      <c r="AJ61" s="126"/>
-      <c r="AK61" s="106"/>
+      <c r="Q61" s="117"/>
+      <c r="R61" s="117"/>
+      <c r="S61" s="117"/>
+      <c r="T61" s="117"/>
+      <c r="U61" s="117"/>
+      <c r="V61" s="117"/>
+      <c r="W61" s="117"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="117"/>
+      <c r="Z61" s="117"/>
+      <c r="AA61" s="117"/>
+      <c r="AB61" s="118"/>
+      <c r="AC61" s="119"/>
+      <c r="AD61" s="120"/>
+      <c r="AE61" s="120"/>
+      <c r="AF61" s="120"/>
+      <c r="AG61" s="120"/>
+      <c r="AH61" s="120"/>
+      <c r="AI61" s="121"/>
+      <c r="AJ61" s="107"/>
+      <c r="AK61" s="87"/>
     </row>
     <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="39"/>
@@ -3817,22 +3928,22 @@
       <c r="S63" t="s">
         <v>134</v>
       </c>
-      <c r="X63" s="101" t="s">
+      <c r="X63" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="Y63" s="101"/>
-      <c r="Z63" s="101"/>
-      <c r="AA63" s="101"/>
-      <c r="AB63" s="101"/>
-      <c r="AC63" s="101"/>
-      <c r="AD63" s="101"/>
-      <c r="AE63" s="101"/>
-      <c r="AF63" s="101"/>
-      <c r="AG63" s="101"/>
-      <c r="AH63" s="101"/>
-      <c r="AI63" s="101"/>
-      <c r="AJ63" s="103"/>
-      <c r="AK63" s="102"/>
+      <c r="Y63" s="82"/>
+      <c r="Z63" s="82"/>
+      <c r="AA63" s="82"/>
+      <c r="AB63" s="82"/>
+      <c r="AC63" s="82"/>
+      <c r="AD63" s="82"/>
+      <c r="AE63" s="82"/>
+      <c r="AF63" s="82"/>
+      <c r="AG63" s="82"/>
+      <c r="AH63" s="82"/>
+      <c r="AI63" s="82"/>
+      <c r="AJ63" s="84"/>
+      <c r="AK63" s="83"/>
     </row>
     <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B64" s="39"/>
@@ -3902,13 +4013,13 @@
       <c r="O67" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="P67" s="92" t="s">
+      <c r="P67" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="93"/>
-      <c r="S67" s="93"/>
-      <c r="T67" s="94"/>
+      <c r="Q67" s="136"/>
+      <c r="R67" s="136"/>
+      <c r="S67" s="136"/>
+      <c r="T67" s="137"/>
       <c r="U67" s="61" t="s">
         <v>86</v>
       </c>
@@ -3939,13 +4050,13 @@
       <c r="O68" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="95" t="s">
+      <c r="P68" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="96"/>
-      <c r="S68" s="96"/>
-      <c r="T68" s="97"/>
+      <c r="Q68" s="139"/>
+      <c r="R68" s="139"/>
+      <c r="S68" s="139"/>
+      <c r="T68" s="140"/>
       <c r="U68" s="64" t="s">
         <v>90</v>
       </c>
@@ -3976,13 +4087,13 @@
       <c r="O69" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P69" s="95" t="s">
+      <c r="P69" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="97"/>
+      <c r="Q69" s="139"/>
+      <c r="R69" s="139"/>
+      <c r="S69" s="139"/>
+      <c r="T69" s="140"/>
       <c r="U69" s="64" t="s">
         <v>93</v>
       </c>
@@ -4010,13 +4121,13 @@
       <c r="O70" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="P70" s="95" t="s">
+      <c r="P70" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="Q70" s="96"/>
-      <c r="R70" s="96"/>
-      <c r="S70" s="96"/>
-      <c r="T70" s="97"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="139"/>
+      <c r="T70" s="140"/>
       <c r="U70" s="64" t="s">
         <v>95</v>
       </c>
@@ -4044,13 +4155,13 @@
       <c r="O71" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P71" s="95" t="s">
+      <c r="P71" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="97"/>
+      <c r="Q71" s="139"/>
+      <c r="R71" s="139"/>
+      <c r="S71" s="139"/>
+      <c r="T71" s="140"/>
       <c r="U71" s="64" t="s">
         <v>97</v>
       </c>
@@ -4078,13 +4189,13 @@
       <c r="O72" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P72" s="95" t="s">
+      <c r="P72" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="96"/>
-      <c r="S72" s="96"/>
-      <c r="T72" s="97"/>
+      <c r="Q72" s="139"/>
+      <c r="R72" s="139"/>
+      <c r="S72" s="139"/>
+      <c r="T72" s="140"/>
       <c r="U72" s="64" t="s">
         <v>99</v>
       </c>
@@ -4112,13 +4223,13 @@
       <c r="O73" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P73" s="95" t="s">
+      <c r="P73" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="97"/>
+      <c r="Q73" s="139"/>
+      <c r="R73" s="139"/>
+      <c r="S73" s="139"/>
+      <c r="T73" s="140"/>
       <c r="U73" s="64" t="s">
         <v>101</v>
       </c>
@@ -4146,13 +4257,13 @@
       <c r="O74" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="P74" s="95" t="s">
+      <c r="P74" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="97"/>
+      <c r="Q74" s="139"/>
+      <c r="R74" s="139"/>
+      <c r="S74" s="139"/>
+      <c r="T74" s="140"/>
       <c r="U74" s="64" t="s">
         <v>103</v>
       </c>
@@ -4180,13 +4291,13 @@
       <c r="O75" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="P75" s="95" t="s">
+      <c r="P75" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="96"/>
-      <c r="T75" s="97"/>
+      <c r="Q75" s="139"/>
+      <c r="R75" s="139"/>
+      <c r="S75" s="139"/>
+      <c r="T75" s="140"/>
       <c r="U75" s="64" t="s">
         <v>106</v>
       </c>
@@ -4214,13 +4325,13 @@
       <c r="O76" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="P76" s="98" t="s">
+      <c r="P76" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="Q76" s="99"/>
-      <c r="R76" s="99"/>
-      <c r="S76" s="99"/>
-      <c r="T76" s="100"/>
+      <c r="Q76" s="142"/>
+      <c r="R76" s="142"/>
+      <c r="S76" s="142"/>
+      <c r="T76" s="143"/>
       <c r="U76" s="67" t="s">
         <v>108</v>
       </c>
@@ -4483,42 +4594,42 @@
       <c r="N87" s="53"/>
       <c r="AJ87" s="54"/>
       <c r="AK87" s="40"/>
-      <c r="AM87" s="91" t="s">
+      <c r="AM87" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="AN87" s="91"/>
-      <c r="AO87" s="91"/>
-      <c r="AP87" s="91"/>
-      <c r="AQ87" s="91"/>
-      <c r="AR87" s="91"/>
-      <c r="AS87" s="91"/>
-      <c r="AT87" s="91"/>
-      <c r="AU87" s="91"/>
-      <c r="AV87" s="91"/>
-      <c r="AW87" s="91"/>
-      <c r="AX87" s="91"/>
-      <c r="AY87" s="91"/>
-      <c r="AZ87" s="91"/>
-      <c r="BA87" s="91"/>
-      <c r="BB87" s="91"/>
-      <c r="BC87" s="91"/>
-      <c r="BD87" s="91"/>
-      <c r="BE87" s="91"/>
-      <c r="BF87" s="91"/>
-      <c r="BG87" s="91"/>
-      <c r="BH87" s="91"/>
-      <c r="BI87" s="91"/>
-      <c r="BJ87" s="91"/>
-      <c r="BK87" s="91"/>
-      <c r="BL87" s="91"/>
-      <c r="BM87" s="91"/>
-      <c r="BN87" s="91"/>
-      <c r="BO87" s="91"/>
-      <c r="BP87" s="91"/>
-      <c r="BQ87" s="91"/>
-      <c r="BR87" s="91"/>
-      <c r="BS87" s="91"/>
-      <c r="BT87" s="91"/>
+      <c r="AN87" s="131"/>
+      <c r="AO87" s="131"/>
+      <c r="AP87" s="131"/>
+      <c r="AQ87" s="131"/>
+      <c r="AR87" s="131"/>
+      <c r="AS87" s="131"/>
+      <c r="AT87" s="131"/>
+      <c r="AU87" s="131"/>
+      <c r="AV87" s="131"/>
+      <c r="AW87" s="131"/>
+      <c r="AX87" s="131"/>
+      <c r="AY87" s="131"/>
+      <c r="AZ87" s="131"/>
+      <c r="BA87" s="131"/>
+      <c r="BB87" s="131"/>
+      <c r="BC87" s="131"/>
+      <c r="BD87" s="131"/>
+      <c r="BE87" s="131"/>
+      <c r="BF87" s="131"/>
+      <c r="BG87" s="131"/>
+      <c r="BH87" s="131"/>
+      <c r="BI87" s="131"/>
+      <c r="BJ87" s="131"/>
+      <c r="BK87" s="131"/>
+      <c r="BL87" s="131"/>
+      <c r="BM87" s="131"/>
+      <c r="BN87" s="131"/>
+      <c r="BO87" s="131"/>
+      <c r="BP87" s="131"/>
+      <c r="BQ87" s="131"/>
+      <c r="BR87" s="131"/>
+      <c r="BS87" s="131"/>
+      <c r="BT87" s="131"/>
     </row>
     <row r="88" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B88" s="39"/>
@@ -4809,39 +4920,39 @@
         <v>36</v>
       </c>
       <c r="AK99" s="40"/>
-      <c r="AM99" s="91" t="s">
+      <c r="AM99" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="AN99" s="91"/>
-      <c r="AO99" s="91"/>
-      <c r="AP99" s="91"/>
-      <c r="AQ99" s="91"/>
-      <c r="AR99" s="91"/>
-      <c r="AS99" s="91"/>
-      <c r="AT99" s="91"/>
-      <c r="AU99" s="91"/>
-      <c r="AV99" s="91"/>
-      <c r="AW99" s="91"/>
-      <c r="AX99" s="91"/>
-      <c r="AY99" s="91"/>
-      <c r="AZ99" s="91"/>
-      <c r="BA99" s="91"/>
-      <c r="BB99" s="91"/>
-      <c r="BC99" s="91"/>
-      <c r="BD99" s="91"/>
-      <c r="BE99" s="91"/>
-      <c r="BF99" s="91"/>
-      <c r="BG99" s="91"/>
-      <c r="BH99" s="91"/>
-      <c r="BI99" s="91"/>
-      <c r="BJ99" s="91"/>
-      <c r="BK99" s="91"/>
-      <c r="BL99" s="91"/>
-      <c r="BM99" s="91"/>
-      <c r="BN99" s="91"/>
-      <c r="BO99" s="91"/>
-      <c r="BP99" s="91"/>
-      <c r="BQ99" s="91"/>
+      <c r="AN99" s="131"/>
+      <c r="AO99" s="131"/>
+      <c r="AP99" s="131"/>
+      <c r="AQ99" s="131"/>
+      <c r="AR99" s="131"/>
+      <c r="AS99" s="131"/>
+      <c r="AT99" s="131"/>
+      <c r="AU99" s="131"/>
+      <c r="AV99" s="131"/>
+      <c r="AW99" s="131"/>
+      <c r="AX99" s="131"/>
+      <c r="AY99" s="131"/>
+      <c r="AZ99" s="131"/>
+      <c r="BA99" s="131"/>
+      <c r="BB99" s="131"/>
+      <c r="BC99" s="131"/>
+      <c r="BD99" s="131"/>
+      <c r="BE99" s="131"/>
+      <c r="BF99" s="131"/>
+      <c r="BG99" s="131"/>
+      <c r="BH99" s="131"/>
+      <c r="BI99" s="131"/>
+      <c r="BJ99" s="131"/>
+      <c r="BK99" s="131"/>
+      <c r="BL99" s="131"/>
+      <c r="BM99" s="131"/>
+      <c r="BN99" s="131"/>
+      <c r="BO99" s="131"/>
+      <c r="BP99" s="131"/>
+      <c r="BQ99" s="131"/>
     </row>
     <row r="100" spans="2:69" x14ac:dyDescent="0.2">
       <c r="B100" s="39"/>
@@ -5122,15 +5233,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100181CC8CE52E4914F9BDA98FF41419CD8" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dec1bab137ac81610f64b5552c534649">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5cca77ae-ca29-426b-9678-f1e58ee37e89" xmlns:ns4="ffd51e64-66fd-45c8-80ae-e3b83ca67b19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cae6b1b69a19210c665e838258e55647" ns3:_="" ns4:_="">
     <xsd:import namespace="5cca77ae-ca29-426b-9678-f1e58ee37e89"/>
@@ -5369,6 +5471,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8EC494-AFF2-4C99-A659-E29C981B1888}">
   <ds:schemaRefs>
@@ -5387,14 +5498,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1C2824-CDE2-4F18-BB56-FE453D8E814D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66C0F83-B37B-4FC5-9E2B-CCC18EAF7A3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5411,4 +5514,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1C2824-CDE2-4F18-BB56-FE453D8E814D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>